--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/97.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/97.xlsx
@@ -479,13 +479,13 @@
         <v>-8.368357005910227</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.522974033077187</v>
+        <v>-8.539143027086718</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.159460236856232</v>
+        <v>-2.147074918367958</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.912578323282476</v>
+        <v>-5.809280053861258</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.43685889399087</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.225349895930107</v>
+        <v>-9.246454688110969</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.078392697660264</v>
+        <v>-2.06668817891976</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.839470904214278</v>
+        <v>-5.735976250250434</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.465811227733953</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.804592650556593</v>
+        <v>-9.828852687722312</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.169737694586987</v>
+        <v>-2.158884175531195</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.695730511314967</v>
+        <v>-5.586265767255296</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.449571001890362</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46437925226538</v>
+        <v>-10.48674090551905</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.067080948005013</v>
+        <v>-2.051474923017675</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.57719280138598</v>
+        <v>-5.489212526289581</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.383910940985874</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.15016716741783</v>
+        <v>-11.17491161978869</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.195869931059072</v>
+        <v>-2.188983379764324</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.124526430633301</v>
+        <v>-5.021005592063773</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.266917057162653</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.65354002707652</v>
+        <v>-11.66731312966601</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.969163615051743</v>
+        <v>-1.962499632905305</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.042607891752621</v>
+        <v>-4.963857690159639</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.099101220886778</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.26608960013235</v>
+        <v>-12.27737516518192</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.820919469974879</v>
+        <v>-1.813365211235203</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.621376140122926</v>
+        <v>-4.558114132791706</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.88333509982114</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.8776703427779</v>
+        <v>-12.88699206240121</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.741920514627904</v>
+        <v>-1.732101287496609</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.035168280384642</v>
+        <v>-3.968109505229321</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.624621270596607</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.49362391457259</v>
+        <v>-13.49999986605651</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.671169710071216</v>
+        <v>-1.669467710701792</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.669945400311851</v>
+        <v>-3.599273149572214</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.328621801084512</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.35932625537604</v>
+        <v>-14.36363362301097</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.496701682402374</v>
+        <v>-1.492106284104929</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.174087522484318</v>
+        <v>-3.108089223859177</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.003609318918864</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.0175679653495</v>
+        <v>-15.0136140898913</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.36013587146033</v>
+        <v>-1.36043699442569</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.753798416659228</v>
+        <v>-2.698575083272828</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.656884243677204</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.74752931028994</v>
+        <v>-15.73620446833185</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.197686577800193</v>
+        <v>-1.191271349407747</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.146917810733858</v>
+        <v>-2.090489985486018</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.302060582587271</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.40797052714081</v>
+        <v>-16.39335951716945</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9833001187669285</v>
+        <v>-0.9753007217306338</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.441779471981334</v>
+        <v>-1.380756248436048</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.95091311185834</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.04089172341838</v>
+        <v>-17.0197214697233</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7573924332329451</v>
+        <v>-0.7482278212437369</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.265308321977708</v>
+        <v>-1.206432236098466</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.616789392698709</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.88734837904449</v>
+        <v>-17.86066626585305</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5651188736993561</v>
+        <v>-0.5483869106676301</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7506368049666144</v>
+        <v>-0.6922320419896745</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.314318701293636</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.76715113000848</v>
+        <v>-18.74431815385251</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2656979077090809</v>
+        <v>-0.251309466886024</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5338282699076308</v>
+        <v>-0.4806604280673812</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.058234127893134</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.51506202214493</v>
+        <v>-19.48763364769151</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1536016107782223</v>
+        <v>-0.143769291344086</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1202686077431877</v>
+        <v>-0.06953593423149923</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.861869159117135</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.1916329560968</v>
+        <v>-20.16614224246396</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08137904062507716</v>
+        <v>0.09409166668439317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02674486086655428</v>
+        <v>0.06545880036953826</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.734461310103426</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.66692282615999</v>
+        <v>-20.62674254873873</v>
       </c>
       <c r="F20" t="n">
-        <v>0.172147976226764</v>
+        <v>0.1794011120010802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2833801811700687</v>
+        <v>0.318349722060319</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.680986016478449</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.31914207682625</v>
+        <v>-21.28059833726021</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4130856254230488</v>
+        <v>0.4201685612604226</v>
       </c>
       <c r="G21" t="n">
-        <v>0.436494662904055</v>
+        <v>0.4573637936337664</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.701181292715038</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.74478593451361</v>
+        <v>-21.70762997904879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5207960009019292</v>
+        <v>0.5227598463281881</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6308368062866367</v>
+        <v>0.659548226418542</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.792180747963993</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.12071831831093</v>
+        <v>-22.07505236599899</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6640257939904124</v>
+        <v>0.6690008690702682</v>
       </c>
       <c r="G23" t="n">
-        <v>0.68039117254257</v>
+        <v>0.7020720260484683</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.944728860652067</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.41803142354369</v>
+        <v>-22.35734859987229</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8518348782549728</v>
+        <v>0.8594938754173825</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8405362209025632</v>
+        <v>0.8756890540325977</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.145344325943682</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.55174311246624</v>
+        <v>-22.48197423062268</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8611827824839653</v>
+        <v>0.8604627058276703</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9515458566975585</v>
+        <v>0.9848003059155428</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.378419602254684</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.77386712247896</v>
+        <v>-22.69778775066569</v>
       </c>
       <c r="F26" t="n">
-        <v>1.022087184408779</v>
+        <v>1.022676338036656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7669967558405879</v>
+        <v>0.8035504653746871</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.627536656423805</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.64505195481922</v>
+        <v>-22.56741459896778</v>
       </c>
       <c r="F27" t="n">
-        <v>0.979196800299284</v>
+        <v>0.9800870768925214</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6520594291930748</v>
+        <v>0.6945046750059507</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.876875279153003</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.75221245357875</v>
+        <v>-22.67461437463584</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9772853240843921</v>
+        <v>0.9814879532965861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2131268841213666</v>
+        <v>0.2562529296820122</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.111692204551467</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.49980594709311</v>
+        <v>-22.427353143167</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9475527043308322</v>
+        <v>0.9534573329124506</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.008696002925998189</v>
+        <v>0.02644373790119458</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.31906218603134</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.35271392466632</v>
+        <v>-22.28243444301193</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8821697439392521</v>
+        <v>0.8918056788307626</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4800581821366618</v>
+        <v>-0.4452719334861956</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.491382580829251</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.88235985277447</v>
+        <v>-21.80131849818418</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8695487639998282</v>
+        <v>0.8793941757368062</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7774760257921529</v>
+        <v>-0.7472458985306074</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.624769522443034</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.41537050271294</v>
+        <v>-21.32780918130748</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8244457807100819</v>
+        <v>0.8371191298608728</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.199611146317926</v>
+        <v>-1.176647247133539</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.718563436367762</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.20955950204101</v>
+        <v>-21.13612477540176</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7246824330561292</v>
+        <v>0.7362036595568482</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.613157716179528</v>
+        <v>-1.590102170875248</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.774441242799584</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.71249713235203</v>
+        <v>-20.63741277555474</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6824204794830375</v>
+        <v>0.6993750116630728</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.003962956005051</v>
+        <v>-1.991695468242354</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.796335456962737</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.3275572441996</v>
+        <v>-20.25331079478418</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6389409417456652</v>
+        <v>0.6605825183430384</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.202717205445294</v>
+        <v>-2.186810057492597</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.789681379943661</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.77757578642438</v>
+        <v>-19.70661550502222</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6563144276166357</v>
+        <v>0.6761623587246924</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.527524146645677</v>
+        <v>-2.515963643236432</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.760472160681688</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.39706109663245</v>
+        <v>-19.32716129176047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.578349764194157</v>
+        <v>0.5954352194026095</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.757307153820811</v>
+        <v>-2.744856373818329</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.714483630744001</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.68646326759492</v>
+        <v>-18.6072286507968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7531843763425669</v>
+        <v>0.773778568712602</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.837576062543433</v>
+        <v>-2.820542976546347</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.655403326074272</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.24025140214322</v>
+        <v>-18.16991955127747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8506434786963758</v>
+        <v>0.8763567614775257</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.757804661328796</v>
+        <v>-2.733544624163078</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.588656956182176</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.63460147268497</v>
+        <v>-17.56639057487958</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7436400875709486</v>
+        <v>0.7629643265653363</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.814245578879477</v>
+        <v>-2.788427557675594</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.51837015997865</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.09137564317607</v>
+        <v>-17.02080813085917</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9052776584548986</v>
+        <v>0.9280844500051855</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.987784053046556</v>
+        <v>-2.966207937963392</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.448600989207892</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.44193196071225</v>
+        <v>-16.3758682005729</v>
       </c>
       <c r="F42" t="n">
-        <v>0.884185958576878</v>
+        <v>0.9085114572568049</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.137743289795687</v>
+        <v>-3.112815545185041</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.380944096137605</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.87525781681382</v>
+        <v>-15.80969156418246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9124653327150063</v>
+        <v>0.9333082788390341</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.160039481535146</v>
+        <v>-3.135046275410291</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.315710424784912</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.27824880723111</v>
+        <v>-15.20575672639647</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9954705327315495</v>
+        <v>1.025176967879426</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.326495019864852</v>
+        <v>-3.306764919482371</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.251900137706717</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.77871199230505</v>
+        <v>-14.71918129128372</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9666674664797522</v>
+        <v>0.9907703960113698</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.427122459506358</v>
+        <v>-3.408740866316575</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.187479089851682</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.31534921013068</v>
+        <v>-14.2526632641245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7790285821521341</v>
+        <v>0.7984444672664139</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.458517801720817</v>
+        <v>-3.44268920758517</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.119623228016791</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.54755110997766</v>
+        <v>-13.48457713330896</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8314763473360888</v>
+        <v>0.8527906163624188</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.334036186301686</v>
+        <v>-3.310967548694564</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.043634302362234</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.97434390696121</v>
+        <v>-12.91353016026139</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7575702977945451</v>
+        <v>0.7746950299115228</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.350414657156685</v>
+        <v>-3.317631530841003</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.957588414568064</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.55066389470011</v>
+        <v>-12.49613445336432</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7245907869362371</v>
+        <v>0.7389530431536107</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.479661870810205</v>
+        <v>-3.454498464748407</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.859841021932449</v>
       </c>
       <c r="E50" t="n">
-        <v>-12.00340563591596</v>
+        <v>-11.94809065640967</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6705588531084337</v>
+        <v>0.6814254644670663</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.632370491156097</v>
+        <v>-3.612247621688365</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.752534797228353</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.51778593891066</v>
+        <v>-11.46781261896379</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6793437883152319</v>
+        <v>0.6909828455415263</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.807034903367565</v>
+        <v>-3.791703816739904</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.63765567504991</v>
       </c>
       <c r="E52" t="n">
-        <v>-11.05541817175226</v>
+        <v>-11.00890121975561</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6202058563791553</v>
+        <v>0.6286111148035434</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.858893514923642</v>
+        <v>-3.837985107285406</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.518550005752025</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.45610491686941</v>
+        <v>-10.40205989073876</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5989439565641921</v>
+        <v>0.605254446533904</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.014875210979967</v>
+        <v>-3.994883264540651</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.399729027430608</v>
       </c>
       <c r="E54" t="n">
-        <v>-10.01499904952597</v>
+        <v>-9.968966512734465</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5947544196548398</v>
+        <v>0.6018242631893719</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.079852309983453</v>
+        <v>-4.050826674583346</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.286503828233078</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.521091924821857</v>
+        <v>-9.472362373644954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5057529449367859</v>
+        <v>0.5146164339606345</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.194553975179815</v>
+        <v>-4.158667973090644</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.184522885699619</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.197672767722699</v>
+        <v>-9.164077918630829</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4794897854362835</v>
+        <v>0.4885234743970744</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.448047142801316</v>
+        <v>-4.413365632573583</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.097845566837808</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.678589144653943</v>
+        <v>-8.648018617518513</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4512365959038386</v>
+        <v>0.4604143001958886</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.428225396298942</v>
+        <v>-4.387770180518008</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.0316990682211</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.578721058577257</v>
+        <v>-8.559305173462977</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4122869949497036</v>
+        <v>0.4266623434699188</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.492142018772249</v>
+        <v>-4.450089542044624</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.989497940467683</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.014429713796021</v>
+        <v>-7.986372908806202</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4035151520457471</v>
+        <v>0.4135307637196675</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.730264822857563</v>
+        <v>-4.692257867708031</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.976235334957837</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.921696932768076</v>
+        <v>-7.897541634025091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5226551079054543</v>
+        <v>0.5413771009691226</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.790816723500545</v>
+        <v>-4.752482460779971</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.993186835033333</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.581205412763306</v>
+        <v>-7.559616205377299</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4777746937640173</v>
+        <v>0.4925951805808512</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.896157392165073</v>
+        <v>-4.862811296827197</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.039692051869873</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.295609918573893</v>
+        <v>-7.279310001535944</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4520090417715004</v>
+        <v>0.4632422376097014</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.08576012191895</v>
+        <v>-5.053238841660103</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.113350829330112</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.112802093994872</v>
+        <v>-7.102184236390232</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4173275315437681</v>
+        <v>0.4305769420195948</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.035524955915247</v>
+        <v>-5.003488090861544</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.210217520532972</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.893964251995421</v>
+        <v>-6.890403145622471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2139647915032371</v>
+        <v>0.2264286638085603</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.030353496292766</v>
+        <v>-5.009785488528414</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.32530170021856</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.838649272489128</v>
+        <v>-6.837510242141899</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1287339000036004</v>
+        <v>0.1391030038542474</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.084896029931397</v>
+        <v>-5.062364176740786</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.451766346720736</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.557413515146011</v>
+        <v>-6.550710256091047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1675787625350016</v>
+        <v>0.1814566035472312</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.055739471502872</v>
+        <v>-5.031099757554744</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.583743669046251</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.443196265154793</v>
+        <v>-6.439190020485224</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04343754698975501</v>
+        <v>0.05713209576220048</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.016253086132227</v>
+        <v>-5.000463768905105</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.715608488245915</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.231794851169441</v>
+        <v>-6.226715037666852</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00882149827623129</v>
+        <v>0.02323612370497169</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.005255551745177</v>
+        <v>-4.993943802089925</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.844613494470104</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.251066720952462</v>
+        <v>-6.245960722844189</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.07441936319146306</v>
+        <v>-0.06126159883552836</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.890174209766404</v>
+        <v>-4.875681030520614</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.967499938596021</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.381426780347529</v>
+        <v>-6.381308949621953</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.109886411589699</v>
+        <v>-0.09113823392034724</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.825445864516911</v>
+        <v>-4.815207683694681</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.082268632314333</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.402204264957348</v>
+        <v>-6.402426834105658</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1121906568898428</v>
+        <v>-0.09366504836880037</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.768206316492885</v>
+        <v>-4.765234363747813</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.18824075400667</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.516081115074681</v>
+        <v>-6.520205190469825</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.222008893126241</v>
+        <v>-0.2087463903475725</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.650899283031019</v>
+        <v>-4.645400515837494</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.286095458308619</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.613631863548382</v>
+        <v>-6.606287081654174</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2196915555232555</v>
+        <v>-0.2023573465608102</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.402053882918332</v>
+        <v>-4.397759607586245</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.377718404839919</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.893322729156177</v>
+        <v>-6.899881972879881</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2310949512983989</v>
+        <v>-0.2155151109167449</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.116707142482912</v>
+        <v>-4.103261347464459</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.465136545054835</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.131864486932425</v>
+        <v>-7.129599518540807</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3682761004740047</v>
+        <v>-0.3533246906287535</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.849872918265693</v>
+        <v>-3.836911538452384</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.550787949503106</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.403150094115831</v>
+        <v>-7.400165049067918</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4668742331750437</v>
+        <v>-0.4571728367693246</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.491327112642183</v>
+        <v>-3.478156255983406</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.639092860866334</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.903027308915775</v>
+        <v>-7.899714956296817</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3505883993348327</v>
+        <v>-0.3362523277231427</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.365902851418447</v>
+        <v>-3.352234487251685</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.735396225953029</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.304633698585722</v>
+        <v>-8.300247777133743</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4387519666710161</v>
+        <v>-0.431250077142707</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.381940922399561</v>
+        <v>-3.372619202776252</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.844202961128518</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.766608696658867</v>
+        <v>-8.76472340504966</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4848630572795753</v>
+        <v>-0.4742975688863024</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.106256301461336</v>
+        <v>-3.089432692309718</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.969031431532382</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.340496699423088</v>
+        <v>-9.334984839926721</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5466325420868389</v>
+        <v>-0.5343781466269832</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.73431707003074</v>
+        <v>-2.714717892676676</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.112649318214484</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.906607874299324</v>
+        <v>-9.894130909691158</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5800702835446072</v>
+        <v>-0.5728433323759745</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.583860325773624</v>
+        <v>-2.564457532962185</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.276968355582845</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.81326293839169</v>
+        <v>-10.80120492747447</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.563639443478241</v>
+        <v>-0.5510577404473422</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.187831257114252</v>
+        <v>-2.164945911746915</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.463064539940332</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.61227308851939</v>
+        <v>-11.58961031230037</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6357387552276265</v>
+        <v>-0.6297948497374829</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.960326310633578</v>
+        <v>-1.928093061037248</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.67065376895943</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.55968449135806</v>
+        <v>-12.53183716321371</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.539457960129573</v>
+        <v>-0.5250957039121995</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.73809756219812</v>
+        <v>-1.710237141750927</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.896591225754302</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.7177510469201</v>
+        <v>-13.6849941052101</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6336701713786338</v>
+        <v>-0.6190067921959006</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.584079711568054</v>
+        <v>-1.561665689103019</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.142083584832417</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.84499832159271</v>
+        <v>-14.81445397906297</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6972987631894225</v>
+        <v>-0.6847170601585237</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.310961181986807</v>
+        <v>-1.282341407974793</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.407310303115395</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.9729918575273</v>
+        <v>-15.93495871777209</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7203543084937021</v>
+        <v>-0.7083748513935227</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.231739657491522</v>
+        <v>-1.203198437296559</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.692883841442256</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.30593230214628</v>
+        <v>-17.26526760951988</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9062257319376871</v>
+        <v>-0.8972967813996299</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.075378284652788</v>
+        <v>-1.042267850766063</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.998566139346222</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78712998414496</v>
+        <v>-18.73610927997075</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9259296477144848</v>
+        <v>-0.9170268817821111</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.116566669392858</v>
+        <v>-1.086729311216564</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.324143195884751</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34646252950306</v>
+        <v>-20.29015253498079</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.021071412465308</v>
+        <v>-1.015022768552431</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.044833942123041</v>
+        <v>-1.008934847731028</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.669818006447317</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99842311746637</v>
+        <v>-21.93937683165018</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.137880938419188</v>
+        <v>-1.131138402455699</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.04307957354225</v>
+        <v>-1.004431095553474</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.03576689993631</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.65050153615526</v>
+        <v>-23.58776322093771</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.280600131696844</v>
+        <v>-1.276790271569902</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.233729687523465</v>
+        <v>-1.20039668448843</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.42181535871794</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70597999000341</v>
+        <v>-25.64634455055934</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.294883834097167</v>
+        <v>-1.278308978699542</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.461012064855829</v>
+        <v>-1.429119215133384</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.82164302236143</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.70694209481861</v>
+        <v>-27.64400739505843</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.29589194141598</v>
+        <v>-1.274669318509542</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.426029431662737</v>
+        <v>-1.388794922380868</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.23593573236219</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.03357523282175</v>
+        <v>-29.97530139287323</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.616391514981434</v>
+        <v>-1.593637092642514</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.671837417516144</v>
+        <v>-1.639303044954455</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.66204167679991</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.16593168895652</v>
+        <v>-32.1032981121617</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.609269302235535</v>
+        <v>-1.579471220967767</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.932753920848903</v>
+        <v>-1.899342363996818</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.09542496656322</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.54272143914631</v>
+        <v>-34.4812530773044</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.765696136588478</v>
+        <v>-1.738516515889055</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.088277386305767</v>
+        <v>-2.055193137024725</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.532738874869</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60766562794903</v>
+        <v>-36.53103637941641</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.981221625968973</v>
+        <v>-1.947888622933938</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.311566611271405</v>
+        <v>-2.273860779087234</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.96174244211022</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.9208791555394</v>
+        <v>-38.85137211975267</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.046800970903178</v>
+        <v>-2.025408148059798</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.578322281671574</v>
+        <v>-2.549689415356719</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.38046946086995</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.26539637922433</v>
+        <v>-41.19729021984168</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.456655511363413</v>
+        <v>-2.435445980759817</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.755736077479804</v>
+        <v>-2.727050841953582</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.76812715732687</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.61486249338345</v>
+        <v>-43.54120519759589</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.63154249272319</v>
+        <v>-2.612218253728802</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.953888080989328</v>
+        <v>-2.923527030699365</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.13200556023539</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.96459045359939</v>
+        <v>-45.8814150536459</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.963078877584219</v>
+        <v>-2.954699803765515</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.308178888189277</v>
+        <v>-3.291656402003019</v>
       </c>
     </row>
   </sheetData>
